--- a/tabdata.xlsx
+++ b/tabdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://naldeo-my.sharepoint.com/personal/gael_jaunin_naldeo_com/Documents/Documents/1.NDC/Python/causerie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="8_{0905C6BD-1A00-460B-BBB3-B433A8ACD975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F91E63B6-8F93-4EB4-947C-2691D59889BC}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{0905C6BD-1A00-460B-BBB3-B433A8ACD975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{680B0D8B-1F14-4926-987A-52C5EDAB7671}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1935" windowWidth="29040" windowHeight="15840" xr2:uid="{4431D028-322A-4B94-B7C5-0E38EA040480}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$D$619</definedName>
     <definedName name="Mandataire">[1]LISTE!$AO$2:$AO$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,31 +43,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Maintien et entretien de l'installation de Chantier (pour opération supérieure à 5 jours) (La semaine commencée étant due)</t>
-  </si>
-  <si>
-    <t>Démolition de corps de chaussée en grave ciment y compris évacuation en décharge agréée et contrôlée y compris évacuation en décharge agréée et contrôlée</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+  <si>
+    <t>Forfait</t>
+  </si>
+  <si>
+    <t>Forfait/Semaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forfait </t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>1/2j</t>
+  </si>
+  <si>
+    <t>ML/JOUR</t>
+  </si>
+  <si>
+    <t>Réalisation de travaux sous arrêté 09-16h</t>
+  </si>
+  <si>
+    <t>Jour calendaire</t>
+  </si>
+  <si>
+    <t>l'unité</t>
+  </si>
+  <si>
+    <t>Forfait/Jour</t>
+  </si>
+  <si>
+    <t>Intervention Chancre Coloré en zone de surveillance renforcée suivant l'arrête en vigueur</t>
+  </si>
+  <si>
+    <t>Localisation de réseau enterré par procédé sans fouille par géolocalisation</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>SA LA GARONNE</t>
+  </si>
+  <si>
+    <t>description_prestation</t>
   </si>
   <si>
     <t>prix</t>
   </si>
   <si>
-    <t>prestation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ce prix rémunère l'installation de chantier initiale  pour une période de 2 semaines soit 10 jours ouvrés
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rabotage de revêtements pour une surface supérieure à 500 m2 Ce prix comprends le rabotage des couches de roulements des voies de circulation, parking, etc… quelques soit leur structure. il sera rémunéré au m² par couche d’épaisseur de 15 cm </t>
-  </si>
-  <si>
-    <t>Ce prix rémunère la démolition de bordures et/ou de caniveaux. Ce prix est compté pour une bordure seule ou avec son caniveau ou un caniveau seul, mise en dépôt des matériaux éventuels, chargement,  évacuation en décharge agréée et toutes sujétions.</t>
-  </si>
-  <si>
-    <t>Ce prix comprend les constats de terrain  via des vidéos et/ou photos ainsi que la fourniture du rapport établis par un huissier de justice avant ou après travaux et jugés nécessaires par le maître d'ouvrage ou le maître  d'œuvre. Le forfait est compté pour un rapport concernant une  vingtaine de propriétés maximum</t>
+    <t>entreprise</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>Installation de Chantier
+Ce prix rémunère l'installation de chantier initiale  pour une période de 2</t>
+  </si>
+  <si>
+    <t>Maintien et entretien de l'installation de Chantier (pour opération supérieure à 5 jours) (La semain</t>
+  </si>
+  <si>
+    <t>Constat d'huissier 
+Ce prix comprend les constats  de terrain  via des vidéos et/ou photos  ainsi qu</t>
+  </si>
+  <si>
+    <t>Marquage et/ou piquetage des concessionnaires dans l'emprise des travaux conformément à la réforme A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immobilisation de chantier suite à la découverte d'un réseau sensible (non précisé sur les réponses </t>
+  </si>
+  <si>
+    <t>Séparateur mobile de protection de chantier en béton de type D.B.A ou équivalent : 
+Mise à dispositi</t>
+  </si>
+  <si>
+    <t>Séparateur mobile type mur d'eau ou équivalent : 
+ Séparateur mobile de protection de chantier du ty</t>
+  </si>
+  <si>
+    <t>Clôture et barrière de chantier de type "Herras" ou similaire 
+Clôture grillagée amovible de chantie</t>
+  </si>
+  <si>
+    <t>Réalisation de travaux de nuits ou samedi ou dimanche ou jours fériés
+Prestations réalisées entre 21</t>
+  </si>
+  <si>
+    <t>Intervention sur Amiante en sous-section 4 (la journée commencée étant due)
+Ce prix comprend l'insta</t>
+  </si>
+  <si>
+    <t>Intervention et retrait d'amiante en sous-section 3  (la semaine commencée étant due)
+Ce prix compre</t>
   </si>
 </sst>
 </file>
@@ -88,12 +158,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,67 +184,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -311,17 +335,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F70777E-783B-4DD4-9E1D-B6DD7FA730C5}" name="Tableau1" displayName="Tableau1" ref="A1:B7" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
-  <autoFilter ref="A1:B7" xr:uid="{C3088C8F-2984-4107-B1A2-32CEF1B12282}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{4BBB4A39-0A71-4FCD-9D0A-1E7B1EDFC260}" name="prestation" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{5B9FA38B-F59A-4F4C-856A-029D4CB0A427}" name="prix" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -621,83 +634,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3088C8F-2984-4107-B1A2-32CEF1B12282}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A22" sqref="A16:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="110" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="34.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="102.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="34.28515625" style="1" customWidth="1"/>
     <col min="5" max="10" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2450</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1">
+        <v>255</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>450</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <v>250</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>900</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3800</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1">
+        <v>750</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>18</v>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>180</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D619" xr:uid="{C3088C8F-2984-4107-B1A2-32CEF1B12282}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>